--- a/learn_excel.xlsx
+++ b/learn_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\excel\learn_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A357EFC9-F06E-42D2-BF71-13D3662B021D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F599FB-BD65-446A-91DC-826E5FF427DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8445" yWindow="2805" windowWidth="14160" windowHeight="8865" xr2:uid="{45A34CDD-063E-4464-812B-CA0B20A1B3B5}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{45A34CDD-063E-4464-812B-CA0B20A1B3B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Monthly expenses</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>cost</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>% of total</t>
   </si>
 </sst>
 </file>
@@ -407,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE443A04-35CD-4347-9A11-133F2F0BD6C1}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,12 +429,12 @@
     <col min="3" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -438,8 +447,14 @@
       <c r="D3" s="1">
         <v>43891</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -452,8 +467,16 @@
       <c r="D4">
         <v>900</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f>SUM(B4:D4)</f>
+        <v>2750</v>
+      </c>
+      <c r="F4">
+        <f>E4/$E$9</f>
+        <v>0.3822098679638638</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -466,22 +489,38 @@
       <c r="D5">
         <v>500</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f t="shared" ref="E5:E8" si="0">SUM(B5:D5)</f>
+        <v>1500</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F8" si="1">E5/$E$9</f>
+        <v>0.20847810979847117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>75</v>
+        <v>750</v>
       </c>
       <c r="C6">
-        <v>75</v>
+        <v>750</v>
       </c>
       <c r="D6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>750</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>2250</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0.31271716469770672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -492,10 +531,18 @@
         <v>100</v>
       </c>
       <c r="D7">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>5.5594162612925643E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -507,6 +554,56 @@
       </c>
       <c r="D8">
         <v>95</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>295</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>4.1000694927032663E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f>SUM(B4:B8)</f>
+        <v>2455</v>
+      </c>
+      <c r="C9">
+        <f>SUM(C4:C8)</f>
+        <v>2320</v>
+      </c>
+      <c r="D9">
+        <f>SUM(D4:D8)</f>
+        <v>2420</v>
+      </c>
+      <c r="E9">
+        <f>SUM(E4:E8)</f>
+        <v>7195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f>AVERAGE(B4:B8)</f>
+        <v>491</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:E10" si="2">AVERAGE(C4:C8)</f>
+        <v>464</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>484</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>1439</v>
       </c>
     </row>
   </sheetData>

--- a/learn_excel.xlsx
+++ b/learn_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\excel\learn_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F599FB-BD65-446A-91DC-826E5FF427DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BFCD70-F904-4B74-9A6A-5D3B794623A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{45A34CDD-063E-4464-812B-CA0B20A1B3B5}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Monthly expenses</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>% of total</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
   </si>
 </sst>
 </file>
@@ -68,7 +74,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="mmm\-yyyy"/>
+    <numFmt numFmtId="164" formatCode="mmm\-yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -101,7 +107,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE443A04-35CD-4347-9A11-133F2F0BD6C1}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,6 +612,40 @@
         <v>1439</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f>MIN(B4,B4:B8)</f>
+        <v>80</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:D11" si="3">MIN(C4,C4:C8)</f>
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f>MAX(B4:B8)</f>
+        <v>1000</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:D12" si="4">MAX(C4:C8)</f>
+        <v>850</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="4"/>
+        <v>900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/learn_excel.xlsx
+++ b/learn_excel.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\excel\learn_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BFCD70-F904-4B74-9A6A-5D3B794623A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3036561-5B92-4CC2-925B-42E0612836E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{45A34CDD-063E-4464-812B-CA0B20A1B3B5}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{45A34CDD-063E-4464-812B-CA0B20A1B3B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>Monthly expenses</t>
   </si>
@@ -105,9 +106,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,17 +430,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE443A04-35CD-4347-9A11-133F2F0BD6C1}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -478,7 +488,7 @@
         <v>2750</v>
       </c>
       <c r="F4">
-        <f>E4/$E$9</f>
+        <f>E4/$E$10</f>
         <v>0.3822098679638638</v>
       </c>
     </row>
@@ -500,7 +510,7 @@
         <v>1500</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F8" si="1">E5/$E$9</f>
+        <f>E5/$E$10</f>
         <v>0.20847810979847117</v>
       </c>
     </row>
@@ -522,7 +532,7 @@
         <v>2250</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
+        <f>E6/$E$10</f>
         <v>0.31271716469770672</v>
       </c>
     </row>
@@ -544,7 +554,7 @@
         <v>400</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
+        <f>E7/$E$10</f>
         <v>5.5594162612925643E-2</v>
       </c>
     </row>
@@ -566,83 +576,320 @@
         <v>295</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f>E8/$E$10</f>
         <v>4.1000694927032663E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <f>SUM(B4:B8)</f>
         <v>2455</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <f>SUM(C4:C8)</f>
         <v>2320</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <f>SUM(D4:D8)</f>
         <v>2420</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <f>SUM(E4:E8)</f>
         <v>7195</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <f>AVERAGE(B4:B8)</f>
         <v>491</v>
       </c>
-      <c r="C10">
-        <f t="shared" ref="C10:E10" si="2">AVERAGE(C4:C8)</f>
+      <c r="C11">
+        <f t="shared" ref="C11:E11" si="1">AVERAGE(C4:C8)</f>
         <v>464</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="2"/>
+      <c r="D11">
+        <f t="shared" si="1"/>
         <v>484</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="2"/>
+      <c r="E11">
+        <f t="shared" si="1"/>
         <v>1439</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <f>MIN(B4,B4:B8)</f>
         <v>80</v>
       </c>
-      <c r="C11">
-        <f t="shared" ref="C11:D11" si="3">MIN(C4,C4:C8)</f>
+      <c r="C12">
+        <f t="shared" ref="C12:D12" si="2">MIN(C4,C4:C8)</f>
         <v>100</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="3"/>
+      <c r="D12">
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <f>MAX(B4:B8)</f>
         <v>1000</v>
       </c>
+      <c r="C13">
+        <f t="shared" ref="C13:D13" si="3">MAX(C4:C8)</f>
+        <v>850</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FA9849-8F18-454A-A23C-208477013318}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
+        <v>43831</v>
+      </c>
+      <c r="C3" s="4">
+        <v>43862</v>
+      </c>
+      <c r="D3" s="4">
+        <v>43891</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="2">
+        <v>850</v>
+      </c>
+      <c r="D4" s="2">
+        <v>900</v>
+      </c>
+      <c r="E4">
+        <f>SUM(B4:D4)</f>
+        <v>2750</v>
+      </c>
+      <c r="F4">
+        <f>E4/$E$10</f>
+        <v>0.3822098679638638</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>500</v>
+      </c>
+      <c r="C5" s="2">
+        <v>500</v>
+      </c>
+      <c r="D5" s="2">
+        <v>500</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E8" si="0">SUM(B5:D5)</f>
+        <v>1500</v>
+      </c>
+      <c r="F5">
+        <f>E5/$E$10</f>
+        <v>0.20847810979847117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>750</v>
+      </c>
+      <c r="C6" s="2">
+        <v>750</v>
+      </c>
+      <c r="D6" s="2">
+        <v>750</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>2250</v>
+      </c>
+      <c r="F6">
+        <f>E6/$E$10</f>
+        <v>0.31271716469770672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>125</v>
+      </c>
+      <c r="C7" s="2">
+        <v>100</v>
+      </c>
+      <c r="D7" s="2">
+        <v>175</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="F7">
+        <f>E7/$E$10</f>
+        <v>5.5594162612925643E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2">
+        <v>80</v>
+      </c>
+      <c r="C8" s="2">
+        <v>120</v>
+      </c>
+      <c r="D8" s="2">
+        <v>95</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>295</v>
+      </c>
+      <c r="F8">
+        <f>E8/$E$10</f>
+        <v>4.1000694927032663E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <f>SUM(B4:B8)</f>
+        <v>2455</v>
+      </c>
+      <c r="C10">
+        <f>SUM(C4:C8)</f>
+        <v>2320</v>
+      </c>
+      <c r="D10">
+        <f>SUM(D4:D8)</f>
+        <v>2420</v>
+      </c>
+      <c r="E10">
+        <f>SUM(E4:E8)</f>
+        <v>7195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <f>AVERAGE(B4:B8)</f>
+        <v>491</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:E11" si="1">AVERAGE(C4:C8)</f>
+        <v>464</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>484</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f>MIN(B4,B4:B8)</f>
+        <v>80</v>
+      </c>
       <c r="C12">
-        <f t="shared" ref="C12:D12" si="4">MAX(C4:C8)</f>
+        <f t="shared" ref="C12:D12" si="2">MIN(C4,C4:C8)</f>
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <f>MAX(B4:B8)</f>
+        <v>1000</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:D13" si="3">MAX(C4:C8)</f>
         <v>850</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="4"/>
+      <c r="D13">
+        <f t="shared" si="3"/>
         <v>900</v>
       </c>
     </row>
